--- a/config_12.08/fish3d_map_config.xlsx
+++ b/config_12.08/fish3d_map_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -638,489 +638,489 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>远古龙龟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>80~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
+  </si>
+  <si>
+    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>常说是海中的小公主。</t>
+  </si>
+  <si>
+    <t>身型小巧，自认为很可爱。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝藏鳄鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩的外表下蕴藏着气动山河的力量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D084</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>八爪海魔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu45</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu57</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu52</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu54</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu15</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu17</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu41</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu44</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高400倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高1000倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强击蟹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_bg_ywdj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>turntable_ywdj_3d</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>多倍奖励</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~80倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>60~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~120倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~160倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高300倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高200倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高500倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高600倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高800倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.6,-2.5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5,50</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos|坐标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-100倍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>3,4,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2,3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>远古龙龟</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>80~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自称素食主义者，喜欢品尝海草和藏在海草里的小鱼。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海中神奇的鱼种，难以捕获。被捕获后，可发射“穿云火箭”贯穿全渔场，威力不同凡响。</t>
-  </si>
-  <si>
-    <t>手持宝箱，被捕捉后触发“金币大转盘”，可获得高倍金币奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>常说是海中的小公主。</t>
-  </si>
-  <si>
-    <t>身型小巧，自认为很可爱。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击性很强，一旦加起速没有谁能把他拦住。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝藏鳄鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱收集宝藏的他，浑身都是宝，让世人垂延三尺。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说中的瑞兽，象征着吉祥和尊贵。捕获后最高可获得500倍奖励。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜骰子大小，每次均可翻倍获得奖励！</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>称霸深海万年的远古水母，是个可以呼风唤雨的大人物。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩的外表下蕴藏着气动山河的力量</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>由真金铸成的稀有蟹种，降服它的人据说都发家致富了。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲨鱼将军傲气逼人，快去体验征服它的快感吧。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>来自远古的麒麟兽，拥有摧毁一切的力量，你能击败它吗</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉睡千年的龙王，可将万物化为灰烬。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>相传这艘船满载金银珠宝，至今仍未曾谋面。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神是掌管金钱与财富的神明，寄托着大吉大利，发大财的美好心愿。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘的金龙转盘，捕捉后会触发3个“连环转盘”。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可上天入海，见首不见尾。行事十分低调，关于他的传奇故事数不胜数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个头比较大，口头禅是人生苦短，常模仿金蟾打扮自己</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比起成群结队的小河豚，黄金河豚更喜欢孤单。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D084</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>八爪海魔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu28</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu36</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu30</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu32</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu48</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu34</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu45</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu57</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu22</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu23</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu25</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu20</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu51</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu21</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu14</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu52</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu53</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu54</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu56</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu15</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu49</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu17</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu38</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu58</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu41</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu39</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu44</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高400倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高1000倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>强击蟹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>捕获强击蟹，会触发20秒的免费游戏。免费游戏过程还有机会加免费时间，加奖励倍数。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu40</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu27</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_yu37</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_bg_ywdj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>turntable_ywdj_3d</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>多倍奖励</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~80倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>60~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~120倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>100~160倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高300倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高200倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高500倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高600倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高800倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>变异的巨型乌贼，触手的拍击可以将万物粉碎。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1.6,-2.5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5,50</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos|坐标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hfy</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D089</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>背负话费的特殊鱼类，击杀后有概率获得话费碎片</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-100倍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag|标签类型1普通鱼，2黄金鱼，3活动鱼</t>
+    <t>4,5,</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1579,9 +1579,9 @@
   <dimension ref="A1:V52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="E29:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1634,7 +1634,7 @@
         <v>41</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>75</v>
@@ -1681,7 +1681,7 @@
         <v>89</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O2" s="2"/>
     </row>
@@ -1697,7 +1697,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>47</v>
@@ -1752,7 +1752,7 @@
         <v>40</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>31</v>
@@ -1761,7 +1761,7 @@
         <v>91</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O4" s="2"/>
     </row>
@@ -1777,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>48</v>
@@ -1793,7 +1793,7 @@
         <v>40</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>136</v>
@@ -1818,7 +1818,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>49</v>
@@ -1834,7 +1834,7 @@
         <v>40</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>33</v>
@@ -1859,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>9</v>
@@ -1875,7 +1875,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>34</v>
@@ -1884,7 +1884,7 @@
         <v>94</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O7" s="2"/>
     </row>
@@ -1900,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>50</v>
@@ -1916,7 +1916,7 @@
         <v>40</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>137</v>
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>51</v>
@@ -1964,7 +1964,7 @@
         <v>96</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="2"/>
@@ -1981,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>52</v>
@@ -1997,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>139</v>
@@ -2006,7 +2006,7 @@
         <v>97</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O10" s="2"/>
     </row>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>76</v>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>77</v>
@@ -2084,7 +2084,7 @@
         <v>99</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="2"/>
@@ -2101,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>53</v>
@@ -2117,7 +2117,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>36</v>
@@ -2126,7 +2126,7 @@
         <v>100</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="2"/>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>78</v>
@@ -2198,7 +2198,7 @@
         <v>40</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>143</v>
@@ -2207,7 +2207,7 @@
         <v>102</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O15" s="2"/>
     </row>
@@ -2239,7 +2239,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>144</v>
@@ -2280,7 +2280,7 @@
         <v>40</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>35</v>
@@ -2359,7 +2359,7 @@
         <v>40</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>146</v>
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>10</v>
@@ -2421,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>81</v>
@@ -2437,10 +2437,10 @@
         <v>40</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L21" s="12" t="s">
         <v>108</v>
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>55</v>
@@ -2514,13 +2514,13 @@
         <v>2</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>82</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="5">
@@ -2530,16 +2530,16 @@
         <v>40</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L23" s="12" t="s">
         <v>110</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
@@ -2561,7 +2561,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>83</v>
@@ -2578,13 +2578,13 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L24" s="12" t="s">
         <v>111</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -2606,13 +2606,13 @@
         <v>2</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>56</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="5">
@@ -2622,16 +2622,16 @@
         <v>40</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L25" s="12" t="s">
         <v>112</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2653,13 +2653,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>57</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="5">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="J26" s="23"/>
       <c r="K26" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="L26" s="12" t="s">
         <v>113</v>
@@ -2698,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>58</v>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="J27" s="23"/>
       <c r="K27" s="11" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L27" s="12" t="s">
         <v>114</v>
@@ -2744,13 +2744,13 @@
         <v>2</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="5">
@@ -2760,16 +2760,16 @@
         <v>40</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>115</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -2791,7 +2791,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>149</v>
@@ -2807,7 +2807,7 @@
         <v>40</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>147</v>
@@ -2831,7 +2831,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>60</v>
@@ -2854,7 +2854,7 @@
         <v>117</v>
       </c>
       <c r="M30" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -2876,13 +2876,13 @@
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="5">
@@ -2921,13 +2921,13 @@
         <v>3</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="5">
@@ -2944,7 +2944,7 @@
         <v>119</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2958,13 +2958,13 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>63</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="5">
@@ -2981,7 +2981,7 @@
         <v>120</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2995,13 +2995,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="5">
@@ -3032,13 +3032,13 @@
         <v>3</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>85</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="5">
@@ -3055,7 +3055,7 @@
         <v>121</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -3069,13 +3069,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>64</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="5">
@@ -3092,7 +3092,7 @@
         <v>122</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -3106,13 +3106,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>86</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="5">
@@ -3122,7 +3122,7 @@
         <v>42</v>
       </c>
       <c r="J37" s="23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K37" s="11" t="s">
         <v>147</v>
@@ -3131,7 +3131,7 @@
         <v>123</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -3145,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>66</v>
@@ -3166,7 +3166,7 @@
         <v>124</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
@@ -3180,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>87</v>
@@ -3196,16 +3196,16 @@
         <v>42</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L39" s="12" t="s">
         <v>13</v>
       </c>
       <c r="M39" s="20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -3219,13 +3219,13 @@
         <v>2</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>43</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="5">
@@ -3236,13 +3236,13 @@
       </c>
       <c r="J40" s="23"/>
       <c r="K40" s="11" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L40" s="12" t="s">
         <v>125</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>88</v>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="J41" s="23"/>
       <c r="K41" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L41" s="12" t="s">
         <v>126</v>
@@ -3293,7 +3293,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>67</v>
@@ -3310,13 +3310,13 @@
       </c>
       <c r="J42" s="23"/>
       <c r="K42" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L42" s="12" t="s">
         <v>127</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -3330,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>68</v>
@@ -3345,13 +3345,13 @@
       </c>
       <c r="J43" s="23"/>
       <c r="K43" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L43" s="12" t="s">
         <v>128</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -3365,10 +3365,10 @@
         <v>2</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>155</v>
@@ -3382,13 +3382,13 @@
       </c>
       <c r="J44" s="23"/>
       <c r="K44" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L44" s="12" t="s">
         <v>129</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N44" s="18"/>
     </row>
@@ -3403,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>70</v>
@@ -3418,13 +3418,13 @@
       </c>
       <c r="J45" s="23"/>
       <c r="K45" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L45" s="12" t="s">
         <v>130</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -3438,7 +3438,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>71</v>
@@ -3453,13 +3453,13 @@
       </c>
       <c r="J46" s="23"/>
       <c r="K46" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L46" s="12" t="s">
         <v>131</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -3473,7 +3473,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>72</v>
@@ -3490,13 +3490,13 @@
       </c>
       <c r="J47" s="23"/>
       <c r="K47" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L47" s="12" t="s">
         <v>132</v>
       </c>
       <c r="M47" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N47" s="8"/>
     </row>
@@ -3511,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>74</v>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="J48" s="23"/>
       <c r="K48" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L48" s="12" t="s">
         <v>133</v>
@@ -3548,10 +3548,10 @@
         <v>2</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>150</v>
@@ -3565,13 +3565,13 @@
       </c>
       <c r="J49" s="23"/>
       <c r="K49" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L49" s="12" t="s">
         <v>134</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -3585,10 +3585,10 @@
         <v>2</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>156</v>
@@ -3602,13 +3602,13 @@
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3622,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>38</v>
@@ -3638,7 +3638,7 @@
       <c r="J51" s="23"/>
       <c r="K51" s="11"/>
       <c r="L51" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>39</v>
@@ -3655,13 +3655,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="5">
@@ -3672,13 +3672,13 @@
       </c>
       <c r="J52" s="23"/>
       <c r="K52" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
